--- a/nmadb/501344.xlsx
+++ b/nmadb/501344.xlsx
@@ -1,43 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7740"/>
+    <workbookView xWindow="240" yWindow="600" windowWidth="20775" windowHeight="9420"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
-  <si>
-    <t>Treatments</t>
-  </si>
-  <si>
-    <t>Study id</t>
-  </si>
-  <si>
-    <t>Study (name)</t>
-  </si>
-  <si>
-    <t>Treatment 1</t>
-  </si>
-  <si>
-    <t>Treatment 2</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>log(HR)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>Szczylk</t>
   </si>
@@ -54,6 +33,24 @@
     <t>Hudes</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>Study(name)</t>
+  </si>
+  <si>
     <t>Sequence gen.</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>effect=log(HR)</t>
   </si>
   <si>
     <r>
@@ -90,7 +90,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="161"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> progression free survival - relative effectiveness of new therapies for metastatic renal cell cancer </t>
@@ -109,6 +108,12 @@
     </r>
   </si>
   <si>
+    <t>Treatments</t>
+  </si>
+  <si>
+    <t>Interferon-a - common comparator</t>
+  </si>
+  <si>
     <t>Sunitinib</t>
   </si>
   <si>
@@ -116,22 +121,26 @@
   </si>
   <si>
     <t>Sorafenib</t>
-  </si>
-  <si>
-    <t>Interferon-a - common comparator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,109 +175,34 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="D8D8EB"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -335,7 +269,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -370,7 +303,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -546,289 +478,292 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-0.12783340000000001</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.18706970000000001</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-0.67334459999999996</v>
+      </c>
+      <c r="F3" s="2">
+        <v>8.9202500000000004E-2</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-0.46203549999999999</v>
+      </c>
+      <c r="F4" s="2">
+        <v>9.3429700000000004E-2</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-0.34249030000000003</v>
+      </c>
+      <c r="F5" s="2">
+        <v>7.8562900000000005E-2</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-0.3710637</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.1019388</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="L11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6">
+    <row r="12" spans="1:21">
+      <c r="L12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="5">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="P12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="T12" s="6"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D5">
+    </row>
+    <row r="15" spans="1:21">
+      <c r="O15">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>-0.12783340000000001</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.18706970000000001</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>-0.67334459999999996</v>
-      </c>
-      <c r="F9" s="4">
-        <v>8.9202500000000004E-2</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>-0.46203549999999999</v>
-      </c>
-      <c r="F10" s="4">
-        <v>9.3429700000000004E-2</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
-        <v>-0.34249030000000003</v>
-      </c>
-      <c r="F11" s="4">
-        <v>7.8562900000000005E-2</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
-        <v>-0.3710637</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.1019388</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>16</v>
+      <c r="P15" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
